--- a/Code/Results/Cases/Case_6_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.888588372401188</v>
+        <v>0.9572408561427039</v>
       </c>
       <c r="C2">
-        <v>0.2695128049676327</v>
+        <v>0.1490906477515885</v>
       </c>
       <c r="D2">
-        <v>0.0746632294424181</v>
+        <v>0.0764061969860208</v>
       </c>
       <c r="E2">
-        <v>0.04061097147694603</v>
+        <v>0.06410154367301857</v>
       </c>
       <c r="F2">
-        <v>2.310450449735313</v>
+        <v>0.7213018210498561</v>
       </c>
       <c r="G2">
-        <v>0.0008219784641473435</v>
+        <v>0.0008254271118532002</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4293350144414205</v>
+        <v>0.8041335228974162</v>
       </c>
       <c r="L2">
-        <v>0.1476278088320839</v>
+        <v>0.1473971453060088</v>
       </c>
       <c r="M2">
-        <v>0.3367505742817301</v>
+        <v>0.2042365710785958</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.906508917481489</v>
+        <v>2.350437098715503</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.640137720571744</v>
+        <v>0.8321646070639019</v>
       </c>
       <c r="C3">
-        <v>0.2414373315039313</v>
+        <v>0.1493544542412479</v>
       </c>
       <c r="D3">
-        <v>0.0757517680796802</v>
+        <v>0.07179721958588203</v>
       </c>
       <c r="E3">
-        <v>0.04062275779031133</v>
+        <v>0.06331705526901032</v>
       </c>
       <c r="F3">
-        <v>2.117825306031335</v>
+        <v>0.6978833823781301</v>
       </c>
       <c r="G3">
-        <v>0.0008296525461939258</v>
+        <v>0.000829382038805377</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3705648830730581</v>
+        <v>0.7016334996377367</v>
       </c>
       <c r="L3">
-        <v>0.1339821724889063</v>
+        <v>0.1339829869169478</v>
       </c>
       <c r="M3">
-        <v>0.2946721204948588</v>
+        <v>0.1788526156018797</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.760299590055084</v>
+        <v>2.32380971372595</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.489969947428875</v>
+        <v>0.7556848835181711</v>
       </c>
       <c r="C4">
-        <v>0.2242815805652185</v>
+        <v>0.1495537098168427</v>
       </c>
       <c r="D4">
-        <v>0.07645601919227829</v>
+        <v>0.06895200518322753</v>
       </c>
       <c r="E4">
-        <v>0.04065112214911526</v>
+        <v>0.06291860768844515</v>
       </c>
       <c r="F4">
-        <v>2.003251917346716</v>
+        <v>0.6847229574204192</v>
       </c>
       <c r="G4">
-        <v>0.0008344962803244642</v>
+        <v>0.0008318923392039889</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3349539993701285</v>
+        <v>0.638750854526549</v>
       </c>
       <c r="L4">
-        <v>0.1258236218974602</v>
+        <v>0.1259028116831473</v>
       </c>
       <c r="M4">
-        <v>0.2692946509083463</v>
+        <v>0.1633812136811699</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.673549658123349</v>
+        <v>2.311483391331763</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.42930154338498</v>
+        <v>0.7245855276015902</v>
       </c>
       <c r="C5">
-        <v>0.2173034364693507</v>
+        <v>0.1496442112696954</v>
       </c>
       <c r="D5">
-        <v>0.07675154284092045</v>
+        <v>0.06778850753603649</v>
       </c>
       <c r="E5">
-        <v>0.04066777979621961</v>
+        <v>0.06277652283361412</v>
       </c>
       <c r="F5">
-        <v>1.957407041201137</v>
+        <v>0.6796528379966489</v>
       </c>
       <c r="G5">
-        <v>0.0008365045755241612</v>
+        <v>0.0008329362638503186</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.320544631478576</v>
+        <v>0.6131295736949056</v>
       </c>
       <c r="L5">
-        <v>0.1225495112828057</v>
+        <v>0.1226468662506619</v>
       </c>
       <c r="M5">
-        <v>0.2590557536291485</v>
+        <v>0.157102154211902</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.638890235085938</v>
+        <v>2.307431888712841</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.41925736077647</v>
+        <v>0.7194251654339041</v>
       </c>
       <c r="C6">
-        <v>0.2161452873230587</v>
+        <v>0.1496597989514825</v>
       </c>
       <c r="D6">
-        <v>0.07680111641415976</v>
+        <v>0.06759505928720699</v>
       </c>
       <c r="E6">
-        <v>0.04067084780012209</v>
+        <v>0.06275413670238628</v>
       </c>
       <c r="F6">
-        <v>1.94984317282254</v>
+        <v>0.6788282522576878</v>
       </c>
       <c r="G6">
-        <v>0.0008368401671823069</v>
+        <v>0.0008331108822635214</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.318157680413357</v>
+        <v>0.6088751520957913</v>
       </c>
       <c r="L6">
-        <v>0.122008769884026</v>
+        <v>0.1221083709663233</v>
       </c>
       <c r="M6">
-        <v>0.2573614365341435</v>
+        <v>0.1560609831451032</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.633174950112377</v>
+        <v>2.306816686437855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.489149713698481</v>
+        <v>0.7552652132572177</v>
       </c>
       <c r="C7">
-        <v>0.2241874282627236</v>
+        <v>0.1495548927695047</v>
       </c>
       <c r="D7">
-        <v>0.07645997077962363</v>
+        <v>0.06893633050693637</v>
       </c>
       <c r="E7">
-        <v>0.0406513264253654</v>
+        <v>0.06291661017486305</v>
       </c>
       <c r="F7">
-        <v>2.002630325515696</v>
+        <v>0.6846534116876768</v>
       </c>
       <c r="G7">
-        <v>0.0008345232238124889</v>
+        <v>0.0008319063325824549</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3347592765154559</v>
+        <v>0.6384053131404812</v>
       </c>
       <c r="L7">
-        <v>0.125779267365651</v>
+        <v>0.1258587550839465</v>
       </c>
       <c r="M7">
-        <v>0.2691561661749908</v>
+        <v>0.1632964321830528</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.6730795142592</v>
+        <v>2.311424868978463</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.802382534018903</v>
+        <v>0.9140404963345929</v>
       </c>
       <c r="C8">
-        <v>0.2598102846746713</v>
+        <v>0.1491738262369005</v>
       </c>
       <c r="D8">
-        <v>0.07503080230912573</v>
+        <v>0.07482006374251426</v>
       </c>
       <c r="E8">
-        <v>0.04061051656730807</v>
+        <v>0.06381338055124353</v>
       </c>
       <c r="F8">
-        <v>2.243211988365971</v>
+        <v>0.7129658500045721</v>
       </c>
       <c r="G8">
-        <v>0.0008245979337599962</v>
+        <v>0.0008267739740654588</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4089620421832194</v>
+        <v>0.7687747257799629</v>
       </c>
       <c r="L8">
-        <v>0.14287418002462</v>
+        <v>0.1427379954199495</v>
       </c>
       <c r="M8">
-        <v>0.3221386789161755</v>
+        <v>0.1954584946089106</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.85542568879886</v>
+        <v>2.3403962795403</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.439158735437843</v>
+        <v>1.228560816426551</v>
       </c>
       <c r="C9">
-        <v>0.3307161429183765</v>
+        <v>0.1487260008654374</v>
       </c>
       <c r="D9">
-        <v>0.07253739267093096</v>
+        <v>0.08624732711888328</v>
       </c>
       <c r="E9">
-        <v>0.04070869193042004</v>
+        <v>0.06626302551187813</v>
       </c>
       <c r="F9">
-        <v>2.748576637735198</v>
+        <v>0.778803641760085</v>
       </c>
       <c r="G9">
-        <v>0.0008061169067148243</v>
+        <v>0.000817343170011192</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5590791950296605</v>
+        <v>1.025309140484126</v>
       </c>
       <c r="L9">
-        <v>0.1783772302575812</v>
+        <v>0.1771969739012391</v>
       </c>
       <c r="M9">
-        <v>0.4303134684838668</v>
+        <v>0.2595882217726171</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.240376895312636</v>
+        <v>2.431041234218696</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.92636796717693</v>
+        <v>1.462537969726213</v>
       </c>
       <c r="C10">
-        <v>0.3840669011202209</v>
+        <v>0.1485853737895368</v>
       </c>
       <c r="D10">
-        <v>0.07093249091022003</v>
+        <v>0.09459193759301598</v>
       </c>
       <c r="E10">
-        <v>0.04090578190305472</v>
+        <v>0.06852929688017539</v>
       </c>
       <c r="F10">
-        <v>3.146879375781168</v>
+        <v>0.8344226155649181</v>
       </c>
       <c r="G10">
-        <v>0.0007930403157973662</v>
+        <v>0.0008107762823917223</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6734898367587192</v>
+        <v>1.215023036045295</v>
       </c>
       <c r="L10">
-        <v>0.2060314726103343</v>
+        <v>0.2035208676378062</v>
       </c>
       <c r="M10">
-        <v>0.5133820652565788</v>
+        <v>0.3075790881596276</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.545112549705919</v>
+        <v>2.521086831226597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.153650995956468</v>
+        <v>1.569842447164547</v>
       </c>
       <c r="C11">
-        <v>0.4087690072792611</v>
+        <v>0.1485638010912851</v>
       </c>
       <c r="D11">
-        <v>0.07026180476016464</v>
+        <v>0.09838104283157634</v>
       </c>
       <c r="E11">
-        <v>0.04102673339871465</v>
+        <v>0.06967227250399333</v>
       </c>
       <c r="F11">
-        <v>3.335598258866838</v>
+        <v>0.8615266695913562</v>
       </c>
       <c r="G11">
-        <v>0.0007871758432866437</v>
+        <v>0.000807861705265421</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7267669501614265</v>
+        <v>1.301766284760077</v>
       </c>
       <c r="L11">
-        <v>0.2190448016170734</v>
+        <v>0.2157573977594041</v>
       </c>
       <c r="M11">
-        <v>0.5522024152414815</v>
+        <v>0.3296559391866722</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.689826863411668</v>
+        <v>2.567814758967188</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.240665123693702</v>
+        <v>1.610620976980016</v>
       </c>
       <c r="C12">
-        <v>0.4182004496280172</v>
+        <v>0.1485618686213499</v>
       </c>
       <c r="D12">
-        <v>0.07001737518472595</v>
+        <v>0.09981522872037374</v>
       </c>
       <c r="E12">
-        <v>0.04107743191018542</v>
+        <v>0.07012214741591194</v>
       </c>
       <c r="F12">
-        <v>3.408300560092556</v>
+        <v>0.872069813574214</v>
       </c>
       <c r="G12">
-        <v>0.0007849649254478754</v>
+        <v>0.0008067679927876856</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7471503367019494</v>
+        <v>1.334691973725398</v>
       </c>
       <c r="L12">
-        <v>0.2240435623496779</v>
+        <v>0.2204324302529272</v>
       </c>
       <c r="M12">
-        <v>0.5670747288301285</v>
+        <v>0.3380559833305554</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.745627399897515</v>
+        <v>2.586398761101719</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.221880637086997</v>
+        <v>1.601831823803934</v>
       </c>
       <c r="C13">
-        <v>0.4161655207595345</v>
+        <v>0.1485620050609029</v>
       </c>
       <c r="D13">
-        <v>0.07006957539049452</v>
+        <v>0.09950637528683615</v>
       </c>
       <c r="E13">
-        <v>0.04106628844122628</v>
+        <v>0.07002448458076671</v>
       </c>
       <c r="F13">
-        <v>3.392585049844826</v>
+        <v>0.8697863943813928</v>
       </c>
       <c r="G13">
-        <v>0.0007854406878232555</v>
+        <v>0.0008070031077292865</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7427505938738861</v>
+        <v>1.327597131358516</v>
       </c>
       <c r="L13">
-        <v>0.2229636890360212</v>
+        <v>0.2194236787899513</v>
       </c>
       <c r="M13">
-        <v>0.5638636607347323</v>
+        <v>0.3362450250216185</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.733563114588492</v>
+        <v>2.582355816292534</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.160789892117862</v>
+        <v>1.573194302693025</v>
       </c>
       <c r="C14">
-        <v>0.409543295237853</v>
+        <v>0.1485635162633798</v>
       </c>
       <c r="D14">
-        <v>0.07024149782524347</v>
+        <v>0.09849904555791511</v>
       </c>
       <c r="E14">
-        <v>0.04103080380730706</v>
+        <v>0.06970893654820287</v>
       </c>
       <c r="F14">
-        <v>3.341553738724343</v>
+        <v>0.8623883394837435</v>
       </c>
       <c r="G14">
-        <v>0.000786993766589716</v>
+        <v>0.0008077715278536992</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7284395309354537</v>
+        <v>1.304473453206214</v>
       </c>
       <c r="L14">
-        <v>0.2194545790116535</v>
+        <v>0.2161411651925675</v>
       </c>
       <c r="M14">
-        <v>0.5534223798870528</v>
+        <v>0.3303461856378149</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.694396789542651</v>
+        <v>2.5693254968443</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.123497645630721</v>
+        <v>1.555672449783941</v>
       </c>
       <c r="C15">
-        <v>0.4054975377173662</v>
+        <v>0.14856525850049</v>
       </c>
       <c r="D15">
-        <v>0.07034808058308428</v>
+        <v>0.09788195038521508</v>
       </c>
       <c r="E15">
-        <v>0.04100971876886206</v>
+        <v>0.06951790439757488</v>
       </c>
       <c r="F15">
-        <v>3.310461828426753</v>
+        <v>0.857893830621947</v>
       </c>
       <c r="G15">
-        <v>0.0007879462805540267</v>
+        <v>0.0008082434913921756</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7197017441957883</v>
+        <v>1.290320124592455</v>
       </c>
       <c r="L15">
-        <v>0.2173146525988727</v>
+        <v>0.2141360266215315</v>
       </c>
       <c r="M15">
-        <v>0.5470499240949493</v>
+        <v>0.3267383334663805</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.670540522544471</v>
+        <v>2.561461698856931</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.911639307433177</v>
+        <v>1.455544491695377</v>
       </c>
       <c r="C16">
-        <v>0.3824625108953654</v>
+        <v>0.1485876484190456</v>
       </c>
       <c r="D16">
-        <v>0.07097759954234917</v>
+        <v>0.09434419912570746</v>
       </c>
       <c r="E16">
-        <v>0.04089853997531101</v>
+        <v>0.0684569345027235</v>
       </c>
       <c r="F16">
-        <v>3.134710566933165</v>
+        <v>0.8326892718120433</v>
       </c>
       <c r="G16">
-        <v>0.0007934250777754172</v>
+        <v>0.0008109681797529023</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6700354293629474</v>
+        <v>1.20936425228399</v>
       </c>
       <c r="L16">
-        <v>0.2051904515469829</v>
+        <v>0.2027267571401836</v>
       </c>
       <c r="M16">
-        <v>0.5108677758925211</v>
+        <v>0.3061416502196082</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.535787984220519</v>
+        <v>2.518154108917855</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.783208801467993</v>
+        <v>1.394355069753175</v>
       </c>
       <c r="C17">
-        <v>0.3684522011351277</v>
+        <v>0.1486123383722173</v>
       </c>
       <c r="D17">
-        <v>0.07137967114205779</v>
+        <v>0.0921723603603013</v>
       </c>
       <c r="E17">
-        <v>0.04083861795291543</v>
+        <v>0.06783541166127982</v>
       </c>
       <c r="F17">
-        <v>3.028926486403066</v>
+        <v>0.8177027428126991</v>
       </c>
       <c r="G17">
-        <v>0.0007968061571566313</v>
+        <v>0.0008126579811724362</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6399032937636377</v>
+        <v>1.159823438533266</v>
       </c>
       <c r="L17">
-        <v>0.1978694265741581</v>
+        <v>0.1957971081077261</v>
       </c>
       <c r="M17">
-        <v>0.4889513814754665</v>
+        <v>0.2935723920963724</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.45476537263869</v>
+        <v>2.493104448484672</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.709861739283667</v>
+        <v>1.359240868563006</v>
       </c>
       <c r="C18">
-        <v>0.3604335478262755</v>
+        <v>0.1486305210112775</v>
       </c>
       <c r="D18">
-        <v>0.07161645434301178</v>
+        <v>0.09092250570103744</v>
       </c>
       <c r="E18">
-        <v>0.04080707153121654</v>
+        <v>0.06748841357087443</v>
       </c>
       <c r="F18">
-        <v>2.96878059391392</v>
+        <v>0.8092512767765498</v>
       </c>
       <c r="G18">
-        <v>0.0007987589337493322</v>
+        <v>0.0008136367869233496</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6226858723608331</v>
+        <v>1.131369497824551</v>
       </c>
       <c r="L18">
-        <v>0.1936987792139604</v>
+        <v>0.1918357496603704</v>
       </c>
       <c r="M18">
-        <v>0.4764412302653582</v>
+        <v>0.2863656997365354</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.408728100444662</v>
+        <v>2.479235406085166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.685113624789722</v>
+        <v>1.347365016281543</v>
       </c>
       <c r="C19">
-        <v>0.3577249604234396</v>
+        <v>0.1486373571609292</v>
       </c>
       <c r="D19">
-        <v>0.07169754521142835</v>
+        <v>0.09049920170515691</v>
       </c>
       <c r="E19">
-        <v>0.04079688050747698</v>
+        <v>0.067372699096234</v>
       </c>
       <c r="F19">
-        <v>2.948531707320825</v>
+        <v>0.8064180837350676</v>
       </c>
       <c r="G19">
-        <v>0.0007994215612096085</v>
+        <v>0.0008139693891221529</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6168749943215843</v>
+        <v>1.121742037719883</v>
       </c>
       <c r="L19">
-        <v>0.1922933303130776</v>
+        <v>0.1904985826429026</v>
       </c>
       <c r="M19">
-        <v>0.4722212527048768</v>
+        <v>0.2839294175853482</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.393234106550054</v>
+        <v>2.474630375306049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.796825419109609</v>
+        <v>1.400860333700223</v>
       </c>
       <c r="C20">
-        <v>0.3699394099103586</v>
+        <v>0.1486092970334312</v>
       </c>
       <c r="D20">
-        <v>0.0713362915815452</v>
+        <v>0.09240362340922559</v>
       </c>
       <c r="E20">
-        <v>0.04084469191433548</v>
+        <v>0.06790048198758925</v>
       </c>
       <c r="F20">
-        <v>3.040114038411872</v>
+        <v>0.8192805149124922</v>
       </c>
       <c r="G20">
-        <v>0.0007964454159443168</v>
+        <v>0.0008124773906183989</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6430989187360723</v>
+        <v>1.165092837126878</v>
       </c>
       <c r="L20">
-        <v>0.1986445412360212</v>
+        <v>0.1965322305849924</v>
       </c>
       <c r="M20">
-        <v>0.4912743656635428</v>
+        <v>0.2949080170430634</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.463331056588984</v>
+        <v>2.495714836207071</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.178706869549274</v>
+        <v>1.581601744562732</v>
       </c>
       <c r="C21">
-        <v>0.4114861756956429</v>
+        <v>0.1485629019420713</v>
       </c>
       <c r="D21">
-        <v>0.07019073226357975</v>
+        <v>0.09879493806876383</v>
       </c>
       <c r="E21">
-        <v>0.04104109019830293</v>
+        <v>0.06980114995534592</v>
       </c>
       <c r="F21">
-        <v>3.356507922253485</v>
+        <v>0.8645535759140444</v>
       </c>
       <c r="G21">
-        <v>0.000786537342246036</v>
+        <v>0.0008075455575234577</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7326371083546732</v>
+        <v>1.311263203363467</v>
       </c>
       <c r="L21">
-        <v>0.2204832921189279</v>
+        <v>0.2171041667194658</v>
       </c>
       <c r="M21">
-        <v>0.55648437088783</v>
+        <v>0.3320776924171156</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.705872669176898</v>
+        <v>2.573128186329484</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.433882942744049</v>
+        <v>1.700580194924953</v>
       </c>
       <c r="C22">
-        <v>0.4390983833457085</v>
+        <v>0.148569007151039</v>
       </c>
       <c r="D22">
-        <v>0.06949825388363351</v>
+        <v>0.1029683192116408</v>
       </c>
       <c r="E22">
-        <v>0.0411982115292302</v>
+        <v>0.07114323915875786</v>
       </c>
       <c r="F22">
-        <v>3.570595245838263</v>
+        <v>0.895781271156082</v>
       </c>
       <c r="G22">
-        <v>0.0007801178938403815</v>
+        <v>0.0008043802122649112</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7923882974595102</v>
+        <v>1.407255558957047</v>
       </c>
       <c r="L22">
-        <v>0.2351741537470531</v>
+        <v>0.2307918911907905</v>
       </c>
       <c r="M22">
-        <v>0.6001178031129442</v>
+        <v>0.3566059241553532</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.870287756083073</v>
+        <v>2.628935958588642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.297129887991616</v>
+        <v>1.636994076739285</v>
       </c>
       <c r="C23">
-        <v>0.4243137145930405</v>
+        <v>0.1485623657130688</v>
       </c>
       <c r="D23">
-        <v>0.0698623278618129</v>
+        <v>0.1007411324414633</v>
       </c>
       <c r="E23">
-        <v>0.04111157661472742</v>
+        <v>0.07041747216475969</v>
       </c>
       <c r="F23">
-        <v>3.45560780808654</v>
+        <v>0.8789574304251033</v>
       </c>
       <c r="G23">
-        <v>0.0007835397657665785</v>
+        <v>0.0008060644874462301</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7603737235677173</v>
+        <v>1.355975344245621</v>
       </c>
       <c r="L23">
-        <v>0.2272920101507907</v>
+        <v>0.2234629905216963</v>
       </c>
       <c r="M23">
-        <v>0.5767284333232325</v>
+        <v>0.3434915330430925</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.78195117567445</v>
+        <v>2.598652268611488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.790667832036661</v>
+        <v>1.397919104731017</v>
       </c>
       <c r="C24">
-        <v>0.3692669316178581</v>
+        <v>0.148610659611137</v>
       </c>
       <c r="D24">
-        <v>0.07135588602850973</v>
+        <v>0.09229907325772047</v>
       </c>
       <c r="E24">
-        <v>0.04084193686181159</v>
+        <v>0.06787103160775843</v>
       </c>
       <c r="F24">
-        <v>3.035054068351968</v>
+        <v>0.8185666933099753</v>
       </c>
       <c r="G24">
-        <v>0.0007966084790523958</v>
+        <v>0.000812559012786386</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6416538490202726</v>
+        <v>1.162710456717832</v>
       </c>
       <c r="L24">
-        <v>0.1982939932148042</v>
+        <v>0.1961998116295547</v>
       </c>
       <c r="M24">
-        <v>0.4902238663077512</v>
+        <v>0.2943041204889312</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.459456826596991</v>
+        <v>2.494533026283733</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.263935912192039</v>
+        <v>1.143039807235596</v>
       </c>
       <c r="C25">
-        <v>0.3113624291994483</v>
+        <v>0.1488145293045022</v>
       </c>
       <c r="D25">
-        <v>0.07317514567178307</v>
+        <v>0.08316617105933943</v>
       </c>
       <c r="E25">
-        <v>0.04066147382960761</v>
+        <v>0.06552184149602169</v>
       </c>
       <c r="F25">
-        <v>2.607632047097283</v>
+        <v>0.7597929555545804</v>
       </c>
       <c r="G25">
-        <v>0.0008110208385359049</v>
+        <v>0.0008198290500799262</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5178484258611249</v>
+        <v>0.9557460257267962</v>
       </c>
       <c r="L25">
-        <v>0.1685254685227449</v>
+        <v>0.1677116835273367</v>
       </c>
       <c r="M25">
-        <v>0.4004959331370728</v>
+        <v>0.2421032519865172</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.132799976392278</v>
+        <v>2.402616863556091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9572408561427039</v>
+        <v>0.9383644922778274</v>
       </c>
       <c r="C2">
-        <v>0.1490906477515885</v>
+        <v>0.1890102067711652</v>
       </c>
       <c r="D2">
-        <v>0.0764061969860208</v>
+        <v>0.09272910928591926</v>
       </c>
       <c r="E2">
-        <v>0.06410154367301857</v>
+        <v>0.06288036702703437</v>
       </c>
       <c r="F2">
-        <v>0.7213018210498561</v>
+        <v>0.4152628030879058</v>
       </c>
       <c r="G2">
-        <v>0.0008254271118532002</v>
+        <v>0.3201394654773608</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004094508409216768</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3053439014869284</v>
       </c>
       <c r="K2">
-        <v>0.8041335228974162</v>
+        <v>0.3530315149959478</v>
       </c>
       <c r="L2">
-        <v>0.1473971453060088</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2042365710785958</v>
+        <v>0.8864779246658543</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1556406541909254</v>
       </c>
       <c r="O2">
-        <v>2.350437098715503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2030845661665523</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.265189778694634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8321646070639019</v>
+        <v>0.8173615879732381</v>
       </c>
       <c r="C3">
-        <v>0.1493544542412479</v>
+        <v>0.1834143172785758</v>
       </c>
       <c r="D3">
-        <v>0.07179721958588203</v>
+        <v>0.083204963654957</v>
       </c>
       <c r="E3">
-        <v>0.06331705526901032</v>
+        <v>0.06242005385406557</v>
       </c>
       <c r="F3">
-        <v>0.6978833823781301</v>
+        <v>0.4043173207134387</v>
       </c>
       <c r="G3">
-        <v>0.000829382038805377</v>
+        <v>0.3178355093425509</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005719703605311821</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3090008837147593</v>
       </c>
       <c r="K3">
-        <v>0.7016334996377367</v>
+        <v>0.3597004062023146</v>
       </c>
       <c r="L3">
-        <v>0.1339829869169478</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1788526156018797</v>
+        <v>0.7806625118264918</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1416912668652657</v>
       </c>
       <c r="O3">
-        <v>2.32380971372595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1773892918093267</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.26766794326258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7556848835181711</v>
+        <v>0.7428459045529507</v>
       </c>
       <c r="C4">
-        <v>0.1495537098168427</v>
+        <v>0.1800163264143961</v>
       </c>
       <c r="D4">
-        <v>0.06895200518322753</v>
+        <v>0.07735968901758383</v>
       </c>
       <c r="E4">
-        <v>0.06291860768844515</v>
+        <v>0.06218775924089215</v>
       </c>
       <c r="F4">
-        <v>0.6847229574204192</v>
+        <v>0.3981043567380098</v>
       </c>
       <c r="G4">
-        <v>0.0008318923392039889</v>
+        <v>0.3168611783011954</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006942469198237156</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3115480964639019</v>
       </c>
       <c r="K4">
-        <v>0.638750854526549</v>
+        <v>0.3641399994494847</v>
       </c>
       <c r="L4">
-        <v>0.1259028116831473</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1633812136811699</v>
+        <v>0.715670455013381</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1333169714947786</v>
       </c>
       <c r="O4">
-        <v>2.311483391331763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.161630875031836</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.270747152307479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7245855276015902</v>
+        <v>0.7121174311462823</v>
       </c>
       <c r="C5">
-        <v>0.1496442112696954</v>
+        <v>0.1788050746285066</v>
       </c>
       <c r="D5">
-        <v>0.06778850753603649</v>
+        <v>0.07504330943268656</v>
       </c>
       <c r="E5">
-        <v>0.06277652283361412</v>
+        <v>0.06206251344914548</v>
       </c>
       <c r="F5">
-        <v>0.6796528379966489</v>
+        <v>0.3953388680100716</v>
       </c>
       <c r="G5">
-        <v>0.0008329362638503186</v>
+        <v>0.3162333910523003</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007576084681741424</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3124827660921881</v>
       </c>
       <c r="K5">
-        <v>0.6131295736949056</v>
+        <v>0.3657262832444594</v>
       </c>
       <c r="L5">
-        <v>0.1226468662506619</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.157102154211902</v>
+        <v>0.6894969453555433</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1300117632122024</v>
       </c>
       <c r="O5">
-        <v>2.307431888712841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1551961531318007</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.271294174825897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7194251654339041</v>
+        <v>0.7066389278974157</v>
       </c>
       <c r="C6">
-        <v>0.1496597989514825</v>
+        <v>0.1788079566095391</v>
       </c>
       <c r="D6">
-        <v>0.06759505928720699</v>
+        <v>0.07473908406662133</v>
       </c>
       <c r="E6">
-        <v>0.06275413670238628</v>
+        <v>0.06198989983731629</v>
       </c>
       <c r="F6">
-        <v>0.6788282522576878</v>
+        <v>0.3944510013304097</v>
       </c>
       <c r="G6">
-        <v>0.0008331108822635214</v>
+        <v>0.3157232402820753</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007790664605580311</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3124254560351005</v>
       </c>
       <c r="K6">
-        <v>0.6088751520957913</v>
+        <v>0.3656193002658341</v>
       </c>
       <c r="L6">
-        <v>0.1221083709663233</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1560609831451032</v>
+        <v>0.6855443208757919</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1295412476894171</v>
       </c>
       <c r="O6">
-        <v>2.306816686437855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1541077384524598</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.270079080434755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7552652132572177</v>
+        <v>0.7414107969120778</v>
       </c>
       <c r="C7">
-        <v>0.1495548927695047</v>
+        <v>0.1805588402976781</v>
       </c>
       <c r="D7">
-        <v>0.06893633050693637</v>
+        <v>0.07754896259393718</v>
       </c>
       <c r="E7">
-        <v>0.06291661017486305</v>
+        <v>0.06204263341357752</v>
       </c>
       <c r="F7">
-        <v>0.6846534116876768</v>
+        <v>0.3968767584138178</v>
       </c>
       <c r="G7">
-        <v>0.0008319063325824549</v>
+        <v>0.3157277391330382</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007224148062932478</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.310969584064992</v>
       </c>
       <c r="K7">
-        <v>0.6384053131404812</v>
+        <v>0.3631381859352771</v>
       </c>
       <c r="L7">
-        <v>0.1258587550839465</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1632964321830528</v>
+        <v>0.716398428529331</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1334789066716127</v>
       </c>
       <c r="O7">
-        <v>2.311424868978463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1614887556346787</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.267131072294859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9140404963345929</v>
+        <v>0.895319757040312</v>
       </c>
       <c r="C8">
-        <v>0.1491738262369005</v>
+        <v>0.1878301922052614</v>
       </c>
       <c r="D8">
-        <v>0.07482006374251426</v>
+        <v>0.08973997224653374</v>
       </c>
       <c r="E8">
-        <v>0.06381338055124353</v>
+        <v>0.06252225026439362</v>
       </c>
       <c r="F8">
-        <v>0.7129658500045721</v>
+        <v>0.4098113900358982</v>
       </c>
       <c r="G8">
-        <v>0.0008267739740654588</v>
+        <v>0.317771297251852</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004934006693981807</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3057675267023896</v>
       </c>
       <c r="K8">
-        <v>0.7687747257799629</v>
+        <v>0.3539191287429446</v>
       </c>
       <c r="L8">
-        <v>0.1427379954199495</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1954584946089106</v>
+        <v>0.8514423601154704</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1510642998529477</v>
       </c>
       <c r="O8">
-        <v>2.3403962795403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1941450953448509</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.260955452574919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.228560816426551</v>
+        <v>1.197423167044036</v>
       </c>
       <c r="C9">
-        <v>0.1487260008654374</v>
+        <v>0.2014128398833961</v>
       </c>
       <c r="D9">
-        <v>0.08624732711888328</v>
+        <v>0.1132968428853758</v>
       </c>
       <c r="E9">
-        <v>0.06626302551187813</v>
+        <v>0.06412847065961635</v>
       </c>
       <c r="F9">
-        <v>0.778803641760085</v>
+        <v>0.4415483412307353</v>
       </c>
       <c r="G9">
-        <v>0.000817343170011192</v>
+        <v>0.3274644639583855</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001912752392985162</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.299084335715655</v>
       </c>
       <c r="K9">
-        <v>1.025309140484126</v>
+        <v>0.3404773333167022</v>
       </c>
       <c r="L9">
-        <v>0.1771969739012391</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2595882217726171</v>
+        <v>1.114391805203638</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1868004389126767</v>
       </c>
       <c r="O9">
-        <v>2.431041234218696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2584989728717417</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.268204902825943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.462537969726213</v>
+        <v>1.418181157208778</v>
       </c>
       <c r="C10">
-        <v>0.1485853737895368</v>
+        <v>0.2119933113605441</v>
       </c>
       <c r="D10">
-        <v>0.09459193759301598</v>
+        <v>0.1307969614012308</v>
       </c>
       <c r="E10">
-        <v>0.06852929688017539</v>
+        <v>0.06550573743721166</v>
       </c>
       <c r="F10">
-        <v>0.8344226155649181</v>
+        <v>0.4672041877852848</v>
       </c>
       <c r="G10">
-        <v>0.0008107762823917223</v>
+        <v>0.3365716885540877</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001114603748014531</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.295518622399797</v>
       </c>
       <c r="K10">
-        <v>1.215023036045295</v>
+        <v>0.3319799282671703</v>
       </c>
       <c r="L10">
-        <v>0.2035208676378062</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3075790881596276</v>
+        <v>1.308600723484545</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2143096543452003</v>
       </c>
       <c r="O10">
-        <v>2.521086831226597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3059795422028131</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.280519103817426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.569842447164547</v>
+        <v>1.516787801677538</v>
       </c>
       <c r="C11">
-        <v>0.1485638010912851</v>
+        <v>0.2179096364813162</v>
       </c>
       <c r="D11">
-        <v>0.09838104283157634</v>
+        <v>0.1391661732307057</v>
       </c>
       <c r="E11">
-        <v>0.06967227250399333</v>
+        <v>0.06596453645737022</v>
       </c>
       <c r="F11">
-        <v>0.8615266695913562</v>
+        <v>0.477671772390778</v>
       </c>
       <c r="G11">
-        <v>0.000807861705265421</v>
+        <v>0.339539657858694</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001469006712720322</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2933534950190761</v>
       </c>
       <c r="K11">
-        <v>1.301766284760077</v>
+        <v>0.326960434946745</v>
       </c>
       <c r="L11">
-        <v>0.2157573977594041</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3296559391866722</v>
+        <v>1.399000812700649</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2274539799885957</v>
       </c>
       <c r="O11">
-        <v>2.567814758967188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3275530825180368</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.282484928036382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.610620976980016</v>
+        <v>1.555044948549295</v>
       </c>
       <c r="C12">
-        <v>0.1485618686213499</v>
+        <v>0.2196292002648477</v>
       </c>
       <c r="D12">
-        <v>0.09981522872037374</v>
+        <v>0.1421396527584875</v>
       </c>
       <c r="E12">
-        <v>0.07012214741591194</v>
+        <v>0.06626990660009291</v>
       </c>
       <c r="F12">
-        <v>0.872069813574214</v>
+        <v>0.4827650948719864</v>
       </c>
       <c r="G12">
-        <v>0.0008067679927876856</v>
+        <v>0.3417139069954658</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001437763254064528</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2930851034586865</v>
       </c>
       <c r="K12">
-        <v>1.334691973725398</v>
+        <v>0.325977589188934</v>
       </c>
       <c r="L12">
-        <v>0.2204324302529272</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3380559833305554</v>
+        <v>1.432290265157206</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2322941224874597</v>
       </c>
       <c r="O12">
-        <v>2.586398761101719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3357876471625545</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.286609936918268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.601831823803934</v>
+        <v>1.546991971332716</v>
       </c>
       <c r="C13">
-        <v>0.1485620050609029</v>
+        <v>0.2191492464772082</v>
       </c>
       <c r="D13">
-        <v>0.09950637528683615</v>
+        <v>0.1414584395243423</v>
       </c>
       <c r="E13">
-        <v>0.07002448458076671</v>
+        <v>0.06622828864589181</v>
       </c>
       <c r="F13">
-        <v>0.8697863943813928</v>
+        <v>0.4818680789325427</v>
       </c>
       <c r="G13">
-        <v>0.0008070031077292865</v>
+        <v>0.3414329992442475</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001396876518049872</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.293239276585247</v>
       </c>
       <c r="K13">
-        <v>1.327597131358516</v>
+        <v>0.326356643362903</v>
       </c>
       <c r="L13">
-        <v>0.2194236787899513</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3362450250216185</v>
+        <v>1.424921106927343</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.231213036484391</v>
       </c>
       <c r="O13">
-        <v>2.582355816292534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3340242600067072</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.286320602416751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.573194302693025</v>
+        <v>1.520014353636498</v>
       </c>
       <c r="C14">
-        <v>0.1485635162633798</v>
+        <v>0.2180045646212747</v>
       </c>
       <c r="D14">
-        <v>0.09849904555791511</v>
+        <v>0.1393934699455457</v>
       </c>
       <c r="E14">
-        <v>0.06970893654820287</v>
+        <v>0.06599990975368009</v>
       </c>
       <c r="F14">
-        <v>0.8623883394837435</v>
+        <v>0.4781756305516041</v>
       </c>
       <c r="G14">
-        <v>0.0008077715278536992</v>
+        <v>0.3397980482930052</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001445819989562835</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2933723208824688</v>
       </c>
       <c r="K14">
-        <v>1.304473453206214</v>
+        <v>0.3269506509074702</v>
       </c>
       <c r="L14">
-        <v>0.2161411651925675</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3303461856378149</v>
+        <v>1.401654753321168</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2278357049385562</v>
       </c>
       <c r="O14">
-        <v>2.5693254968443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3282348016546663</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.283078552888043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.555672449783941</v>
+        <v>1.50312326296401</v>
       </c>
       <c r="C15">
-        <v>0.14856525850049</v>
+        <v>0.2175197494940377</v>
       </c>
       <c r="D15">
-        <v>0.09788195038521508</v>
+        <v>0.1382091066073343</v>
       </c>
       <c r="E15">
-        <v>0.06951790439757488</v>
+        <v>0.06581285914753821</v>
       </c>
       <c r="F15">
-        <v>0.857893830621947</v>
+        <v>0.4755248091693574</v>
       </c>
       <c r="G15">
-        <v>0.0008082434913921756</v>
+        <v>0.3384315858946252</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001576124272315127</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2932662661053342</v>
       </c>
       <c r="K15">
-        <v>1.290320124592455</v>
+        <v>0.3269875056606644</v>
       </c>
       <c r="L15">
-        <v>0.2141360266215315</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3267383334663805</v>
+        <v>1.387797704857263</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2258450425510148</v>
       </c>
       <c r="O15">
-        <v>2.561461698856931</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3246693859851746</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.279925974794509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.455544491695377</v>
+        <v>1.408659313677219</v>
       </c>
       <c r="C16">
-        <v>0.1485876484190456</v>
+        <v>0.2133952899208396</v>
       </c>
       <c r="D16">
-        <v>0.09434419912570746</v>
+        <v>0.1309206675637711</v>
       </c>
       <c r="E16">
-        <v>0.0684569345027235</v>
+        <v>0.06506839471859571</v>
       </c>
       <c r="F16">
-        <v>0.8326892718120433</v>
+        <v>0.4631279864151168</v>
       </c>
       <c r="G16">
-        <v>0.0008109681797529023</v>
+        <v>0.3331994379265595</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001840999785847508</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2940172955643021</v>
       </c>
       <c r="K16">
-        <v>1.20936425228399</v>
+        <v>0.329472670579392</v>
       </c>
       <c r="L16">
-        <v>0.2027267571401836</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3061416502196082</v>
+        <v>1.305967494938045</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.214064016947944</v>
       </c>
       <c r="O16">
-        <v>2.518154108917855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3043962909508551</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.270211955261061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.394355069753175</v>
+        <v>1.350709036008027</v>
       </c>
       <c r="C17">
-        <v>0.1486123383722173</v>
+        <v>0.2108791048984884</v>
       </c>
       <c r="D17">
-        <v>0.0921723603603013</v>
+        <v>0.1264540634778513</v>
       </c>
       <c r="E17">
-        <v>0.06783541166127982</v>
+        <v>0.06462952235140307</v>
       </c>
       <c r="F17">
-        <v>0.8177027428126991</v>
+        <v>0.455724490637941</v>
       </c>
       <c r="G17">
-        <v>0.0008126579811724362</v>
+        <v>0.3301651057894617</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00209322338600515</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.294583850244635</v>
       </c>
       <c r="K17">
-        <v>1.159823438533266</v>
+        <v>0.3311229732024117</v>
       </c>
       <c r="L17">
-        <v>0.1957971081077261</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2935723920963724</v>
+        <v>1.255808165231002</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2069099278968309</v>
       </c>
       <c r="O17">
-        <v>2.493104448484672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2919808126199968</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.264844204680173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.359240868563006</v>
+        <v>1.318303466010263</v>
       </c>
       <c r="C18">
-        <v>0.1486305210112775</v>
+        <v>0.2088931942225187</v>
       </c>
       <c r="D18">
-        <v>0.09092250570103744</v>
+        <v>0.1236839299023558</v>
       </c>
       <c r="E18">
-        <v>0.06748841357087443</v>
+        <v>0.06450713212465864</v>
       </c>
       <c r="F18">
-        <v>0.8092512767765498</v>
+        <v>0.4525689404848521</v>
       </c>
       <c r="G18">
-        <v>0.0008136367869233496</v>
+        <v>0.3294477160416704</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002005802969561543</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2954481154438255</v>
       </c>
       <c r="K18">
-        <v>1.131369497824551</v>
+        <v>0.3329776482212878</v>
       </c>
       <c r="L18">
-        <v>0.1918357496603704</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2863656997365354</v>
+        <v>1.225982469123153</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2026370104259314</v>
       </c>
       <c r="O18">
-        <v>2.479235406085166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.284899518668233</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.26506277364075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.347365016281543</v>
+        <v>1.306615305434093</v>
       </c>
       <c r="C19">
-        <v>0.1486373571609292</v>
+        <v>0.208640337891822</v>
       </c>
       <c r="D19">
-        <v>0.09049920170515691</v>
+        <v>0.1229024407049479</v>
       </c>
       <c r="E19">
-        <v>0.067372699096234</v>
+        <v>0.06437142668613482</v>
       </c>
       <c r="F19">
-        <v>0.8064180837350676</v>
+        <v>0.4507173567285392</v>
       </c>
       <c r="G19">
-        <v>0.0008139693891221529</v>
+        <v>0.3284705876785949</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002182125810541891</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2953612457421926</v>
       </c>
       <c r="K19">
-        <v>1.121742037719883</v>
+        <v>0.3329494960830601</v>
       </c>
       <c r="L19">
-        <v>0.1904985826429026</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2839294175853482</v>
+        <v>1.216648165414512</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2013365361730592</v>
       </c>
       <c r="O19">
-        <v>2.474630375306049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.282462572299977</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.262785270002482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.400860333700223</v>
+        <v>1.356950985204804</v>
       </c>
       <c r="C20">
-        <v>0.1486092970334312</v>
+        <v>0.2111036224710787</v>
       </c>
       <c r="D20">
-        <v>0.09240362340922559</v>
+        <v>0.1269134633047315</v>
       </c>
       <c r="E20">
-        <v>0.06790048198758925</v>
+        <v>0.06468526517658724</v>
       </c>
       <c r="F20">
-        <v>0.8192805149124922</v>
+        <v>0.4565859740022518</v>
       </c>
       <c r="G20">
-        <v>0.0008124773906183989</v>
+        <v>0.3305572805034345</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002042097620131855</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2945587832338177</v>
       </c>
       <c r="K20">
-        <v>1.165092837126878</v>
+        <v>0.3310099704510172</v>
       </c>
       <c r="L20">
-        <v>0.1965322305849924</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2949080170430634</v>
+        <v>1.26106867692846</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2076543415900858</v>
       </c>
       <c r="O20">
-        <v>2.495714836207071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2933058331055634</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.265636130647323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.581601744562732</v>
+        <v>1.526894491210271</v>
       </c>
       <c r="C21">
-        <v>0.1485629019420713</v>
+        <v>0.2189532843559405</v>
       </c>
       <c r="D21">
-        <v>0.09879493806876383</v>
+        <v>0.1402275456867983</v>
       </c>
       <c r="E21">
-        <v>0.06980114995534592</v>
+        <v>0.06592903281875095</v>
       </c>
       <c r="F21">
-        <v>0.8645535759140444</v>
+        <v>0.4781084966544498</v>
       </c>
       <c r="G21">
-        <v>0.0008075455575234577</v>
+        <v>0.339201377193838</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001697245448685436</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2927768002299729</v>
       </c>
       <c r="K21">
-        <v>1.311263203363467</v>
+        <v>0.3258198151515828</v>
       </c>
       <c r="L21">
-        <v>0.2171041667194658</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3320776924171156</v>
+        <v>1.409597776875614</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2290320691624572</v>
       </c>
       <c r="O21">
-        <v>2.573128186329484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3298751974198666</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.280582535448985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.700580194924953</v>
+        <v>1.639312633814711</v>
       </c>
       <c r="C22">
-        <v>0.148569007151039</v>
+        <v>0.2233553749080386</v>
       </c>
       <c r="D22">
-        <v>0.1029683192116408</v>
+        <v>0.1486581117736137</v>
       </c>
       <c r="E22">
-        <v>0.07114323915875786</v>
+        <v>0.06697664595063912</v>
       </c>
       <c r="F22">
-        <v>0.895781271156082</v>
+        <v>0.4943214644269318</v>
       </c>
       <c r="G22">
-        <v>0.0008043802122649112</v>
+        <v>0.3468138132458307</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001432278356771732</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2926736477489342</v>
       </c>
       <c r="K22">
-        <v>1.407255558957047</v>
+        <v>0.3240638165766363</v>
       </c>
       <c r="L22">
-        <v>0.2307918911907905</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3566059241553532</v>
+        <v>1.505423318596229</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2429945089641734</v>
       </c>
       <c r="O22">
-        <v>2.628935958588642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3539292547492749</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.296728857908278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.636994076739285</v>
+        <v>1.580568612965493</v>
       </c>
       <c r="C23">
-        <v>0.1485623657130688</v>
+        <v>0.2202634174660005</v>
       </c>
       <c r="D23">
-        <v>0.1007411324414633</v>
+        <v>0.1438820846692437</v>
       </c>
       <c r="E23">
-        <v>0.07041747216475969</v>
+        <v>0.0665779409258267</v>
       </c>
       <c r="F23">
-        <v>0.8789574304251033</v>
+        <v>0.4869877067334514</v>
       </c>
       <c r="G23">
-        <v>0.0008060644874462301</v>
+        <v>0.3439892317841995</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001240834443059669</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2933637218785137</v>
       </c>
       <c r="K23">
-        <v>1.355975344245621</v>
+        <v>0.3261121574087475</v>
       </c>
       <c r="L23">
-        <v>0.2234629905216963</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3434915330430925</v>
+        <v>1.452923222750542</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.235270645360913</v>
       </c>
       <c r="O23">
-        <v>2.598652268611488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3411555718473522</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.292066928013483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.397919104731017</v>
+        <v>1.356095663781389</v>
       </c>
       <c r="C24">
-        <v>0.148610659611137</v>
+        <v>0.2098556324811653</v>
       </c>
       <c r="D24">
-        <v>0.09229907325772047</v>
+        <v>0.1262769753533775</v>
       </c>
       <c r="E24">
-        <v>0.06787103160775843</v>
+        <v>0.06492183636978055</v>
       </c>
       <c r="F24">
-        <v>0.8185666933099753</v>
+        <v>0.4583793057660799</v>
       </c>
       <c r="G24">
-        <v>0.000812559012786386</v>
+        <v>0.332424488846577</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001546689874063034</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2956288893601737</v>
       </c>
       <c r="K24">
-        <v>1.162710456717832</v>
+        <v>0.3328836207647363</v>
       </c>
       <c r="L24">
-        <v>0.1961998116295547</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2943041204889312</v>
+        <v>1.256597833426042</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2069284474508493</v>
       </c>
       <c r="O24">
-        <v>2.494533026283733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2928183107642468</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.271829904219857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.143039807235596</v>
+        <v>1.113944013827478</v>
       </c>
       <c r="C25">
-        <v>0.1488145293045022</v>
+        <v>0.1987686607658148</v>
       </c>
       <c r="D25">
-        <v>0.08316617105933943</v>
+        <v>0.1073248375651019</v>
       </c>
       <c r="E25">
-        <v>0.06552184149602169</v>
+        <v>0.06339223230886404</v>
       </c>
       <c r="F25">
-        <v>0.7597929555545804</v>
+        <v>0.4303421824992952</v>
       </c>
       <c r="G25">
-        <v>0.0008198290500799262</v>
+        <v>0.3224151852900192</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002969007873574903</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2995737382446038</v>
       </c>
       <c r="K25">
-        <v>0.9557460257267962</v>
+        <v>0.3419976811875998</v>
       </c>
       <c r="L25">
-        <v>0.1677116835273367</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2421032519865172</v>
+        <v>1.045216273031343</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1773196935627652</v>
       </c>
       <c r="O25">
-        <v>2.402616863556091</v>
+        <v>0.2409510336559251</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.258343232185169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9383644922778274</v>
+        <v>0.9297865681296855</v>
       </c>
       <c r="C2">
-        <v>0.1890102067711652</v>
+        <v>0.1763520839327057</v>
       </c>
       <c r="D2">
-        <v>0.09272910928591926</v>
+        <v>0.09484689565715598</v>
       </c>
       <c r="E2">
-        <v>0.06288036702703437</v>
+        <v>0.05823127602959133</v>
       </c>
       <c r="F2">
-        <v>0.4152628030879058</v>
+        <v>0.3896632526106458</v>
       </c>
       <c r="G2">
-        <v>0.3201394654773608</v>
+        <v>0.2790468340283354</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004094508409216768</v>
+        <v>0.002928598961895901</v>
       </c>
       <c r="J2">
-        <v>0.3053439014869284</v>
+        <v>0.316656104324565</v>
       </c>
       <c r="K2">
-        <v>0.3530315149959478</v>
+        <v>0.3205330055705709</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1540505729061827</v>
       </c>
       <c r="M2">
-        <v>0.8864779246658543</v>
+        <v>0.09133139181817107</v>
       </c>
       <c r="N2">
-        <v>0.1556406541909254</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2030845661665523</v>
+        <v>0.9044045291946361</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1604598483228941</v>
       </c>
       <c r="Q2">
-        <v>1.265189778694634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2024825010851004</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.176861266054303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8173615879732381</v>
+        <v>0.8122380271946668</v>
       </c>
       <c r="C3">
-        <v>0.1834143172785758</v>
+        <v>0.1675029001300814</v>
       </c>
       <c r="D3">
-        <v>0.083204963654957</v>
+        <v>0.08443170729321281</v>
       </c>
       <c r="E3">
-        <v>0.06242005385406557</v>
+        <v>0.05801311200284687</v>
       </c>
       <c r="F3">
-        <v>0.4043173207134387</v>
+        <v>0.3810156850485455</v>
       </c>
       <c r="G3">
-        <v>0.3178355093425509</v>
+        <v>0.2796516482782394</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.005719703605311821</v>
+        <v>0.004098581041620974</v>
       </c>
       <c r="J3">
-        <v>0.3090008837147593</v>
+        <v>0.318572129197733</v>
       </c>
       <c r="K3">
-        <v>0.3597004062023146</v>
+        <v>0.3280943112878951</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1596177543805837</v>
       </c>
       <c r="M3">
-        <v>0.7806625118264918</v>
+        <v>0.09287480365327916</v>
       </c>
       <c r="N3">
-        <v>0.1416912668652657</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1773892918093267</v>
+        <v>0.7950396104445474</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.145998999655319</v>
       </c>
       <c r="Q3">
-        <v>1.26766794326258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1768779209548477</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.184700668862035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7428459045529507</v>
+        <v>0.7397451002501612</v>
       </c>
       <c r="C4">
-        <v>0.1800163264143961</v>
+        <v>0.1621658295849926</v>
       </c>
       <c r="D4">
-        <v>0.07735968901758383</v>
+        <v>0.07805373022481632</v>
       </c>
       <c r="E4">
-        <v>0.06218775924089215</v>
+        <v>0.05791896218479664</v>
       </c>
       <c r="F4">
-        <v>0.3981043567380098</v>
+        <v>0.376109350008349</v>
       </c>
       <c r="G4">
-        <v>0.3168611783011954</v>
+        <v>0.2804646020332129</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006942469198237156</v>
+        <v>0.005004170012083087</v>
       </c>
       <c r="J4">
-        <v>0.3115480964639019</v>
+        <v>0.3198767817630994</v>
       </c>
       <c r="K4">
-        <v>0.3641399994494847</v>
+        <v>0.332995832397442</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.163185554516609</v>
       </c>
       <c r="M4">
-        <v>0.715670455013381</v>
+        <v>0.09437622020331826</v>
       </c>
       <c r="N4">
-        <v>0.1333169714947786</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.161630875031836</v>
+        <v>0.7279172482880512</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1373277992085491</v>
       </c>
       <c r="Q4">
-        <v>1.270747152307479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1611587645071992</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.190751800287003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7121174311462823</v>
+        <v>0.7098221158410354</v>
       </c>
       <c r="C5">
-        <v>0.1788050746285066</v>
+        <v>0.1602024487648208</v>
       </c>
       <c r="D5">
-        <v>0.07504330943268656</v>
+        <v>0.07552434787644557</v>
       </c>
       <c r="E5">
-        <v>0.06206251344914548</v>
+        <v>0.0578495746755614</v>
       </c>
       <c r="F5">
-        <v>0.3953388680100716</v>
+        <v>0.3738647546653198</v>
       </c>
       <c r="G5">
-        <v>0.3162333910523003</v>
+        <v>0.2805870084585607</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007576084681741424</v>
+        <v>0.005511085692420536</v>
       </c>
       <c r="J5">
-        <v>0.3124827660921881</v>
+        <v>0.3202630017978336</v>
       </c>
       <c r="K5">
-        <v>0.3657262832444594</v>
+        <v>0.3347720135979877</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1645249627638279</v>
       </c>
       <c r="M5">
-        <v>0.6894969453555433</v>
+        <v>0.09506378477316613</v>
       </c>
       <c r="N5">
-        <v>0.1300117632122024</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1551961531318007</v>
+        <v>0.7008875877842371</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1339056198819435</v>
       </c>
       <c r="Q5">
-        <v>1.271294174825897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1547363033036326</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.192484936780318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7066389278974157</v>
+        <v>0.7044820240252818</v>
       </c>
       <c r="C6">
-        <v>0.1788079566095391</v>
+        <v>0.160110591951053</v>
       </c>
       <c r="D6">
-        <v>0.07473908406662133</v>
+        <v>0.0751855573889415</v>
       </c>
       <c r="E6">
-        <v>0.06198989983731629</v>
+        <v>0.05778875002080142</v>
       </c>
       <c r="F6">
-        <v>0.3944510013304097</v>
+        <v>0.3730791604547861</v>
       </c>
       <c r="G6">
-        <v>0.3157232402820753</v>
+        <v>0.28022853145238</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.007790664605580311</v>
+        <v>0.005719851110372431</v>
       </c>
       <c r="J6">
-        <v>0.3124254560351005</v>
+        <v>0.3201127260788184</v>
       </c>
       <c r="K6">
-        <v>0.3656193002658341</v>
+        <v>0.3347235474804329</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1645648747678834</v>
       </c>
       <c r="M6">
-        <v>0.6855443208757919</v>
+        <v>0.0951093056202259</v>
       </c>
       <c r="N6">
-        <v>0.1295412476894171</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1541077384524598</v>
+        <v>0.6967923191780301</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1334155542287121</v>
       </c>
       <c r="Q6">
-        <v>1.270079080434755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1536498804790156</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.191528326794398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7414107969120778</v>
+        <v>0.738443624226278</v>
       </c>
       <c r="C7">
-        <v>0.1805588402976781</v>
+        <v>0.1626675926606822</v>
       </c>
       <c r="D7">
-        <v>0.07754896259393718</v>
+        <v>0.07837701078221215</v>
       </c>
       <c r="E7">
-        <v>0.06204263341357752</v>
+        <v>0.05779316407218005</v>
       </c>
       <c r="F7">
-        <v>0.3968767584138178</v>
+        <v>0.374272892940219</v>
       </c>
       <c r="G7">
-        <v>0.3157277391330382</v>
+        <v>0.28136095594067</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007224148062932478</v>
+        <v>0.005330059485157079</v>
       </c>
       <c r="J7">
-        <v>0.310969584064992</v>
+        <v>0.3162425468946708</v>
       </c>
       <c r="K7">
-        <v>0.3631381859352771</v>
+        <v>0.3317252553351828</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.162533720191373</v>
       </c>
       <c r="M7">
-        <v>0.716398428529331</v>
+        <v>0.09407870899448678</v>
       </c>
       <c r="N7">
-        <v>0.1334789066716127</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1614887556346787</v>
+        <v>0.7284486013603697</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1374618496796245</v>
       </c>
       <c r="Q7">
-        <v>1.267131072294859</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1610235801508431</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.185359338863748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.895319757040312</v>
+        <v>0.8883322733434227</v>
       </c>
       <c r="C8">
-        <v>0.1878301922052614</v>
+        <v>0.1737836672745914</v>
       </c>
       <c r="D8">
-        <v>0.08973997224653374</v>
+        <v>0.09200777870074006</v>
       </c>
       <c r="E8">
-        <v>0.06252225026439362</v>
+        <v>0.05800817543185843</v>
       </c>
       <c r="F8">
-        <v>0.4098113900358982</v>
+        <v>0.3829046828560081</v>
       </c>
       <c r="G8">
-        <v>0.317771297251852</v>
+        <v>0.2842927316473336</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.004934006693981807</v>
+        <v>0.003683225801284884</v>
       </c>
       <c r="J8">
-        <v>0.3057675267023896</v>
+        <v>0.3066922068241951</v>
       </c>
       <c r="K8">
-        <v>0.3539191287429446</v>
+        <v>0.3207297976353303</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1548356800571451</v>
       </c>
       <c r="M8">
-        <v>0.8514423601154704</v>
+        <v>0.09107421295280282</v>
       </c>
       <c r="N8">
-        <v>0.1510642998529477</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1941450953448509</v>
+        <v>0.8675274150662062</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1556168990865388</v>
       </c>
       <c r="Q8">
-        <v>1.260955452574919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1935981299120861</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.16833055389155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197423167044036</v>
+        <v>1.181304389558761</v>
       </c>
       <c r="C9">
-        <v>0.2014128398833961</v>
+        <v>0.1956212639345409</v>
       </c>
       <c r="D9">
-        <v>0.1132968428853758</v>
+        <v>0.1180061182671466</v>
       </c>
       <c r="E9">
-        <v>0.06412847065961635</v>
+        <v>0.05895421285969249</v>
       </c>
       <c r="F9">
-        <v>0.4415483412307353</v>
+        <v>0.4076579216129375</v>
       </c>
       <c r="G9">
-        <v>0.3274644639583855</v>
+        <v>0.2884533853112927</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001912752392985162</v>
+        <v>0.001519474629492201</v>
       </c>
       <c r="J9">
-        <v>0.299084335715655</v>
+        <v>0.3007307629181781</v>
       </c>
       <c r="K9">
-        <v>0.3404773333167022</v>
+        <v>0.3042108715535825</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.142347938412728</v>
       </c>
       <c r="M9">
-        <v>1.114391805203638</v>
+        <v>0.0904014707333971</v>
       </c>
       <c r="N9">
-        <v>0.1868004389126767</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2584989728717417</v>
+        <v>1.139407309906119</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1926971993965054</v>
       </c>
       <c r="Q9">
-        <v>1.268204902825943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2576254001383163</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.158462936547906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.418181157208778</v>
+        <v>1.395423153281342</v>
       </c>
       <c r="C10">
-        <v>0.2119933113605441</v>
+        <v>0.2119610213793095</v>
       </c>
       <c r="D10">
-        <v>0.1307969614012308</v>
+        <v>0.1382158955745609</v>
       </c>
       <c r="E10">
-        <v>0.06550573743721166</v>
+        <v>0.05987025548889058</v>
       </c>
       <c r="F10">
-        <v>0.4672041877852848</v>
+        <v>0.4238359761982338</v>
       </c>
       <c r="G10">
-        <v>0.3365716885540877</v>
+        <v>0.3053748365643685</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001114603748014531</v>
+        <v>0.001156587748129212</v>
       </c>
       <c r="J10">
-        <v>0.295518622399797</v>
+        <v>0.2810044389686865</v>
       </c>
       <c r="K10">
-        <v>0.3319799282671703</v>
+        <v>0.2911803791173497</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1331243137589713</v>
       </c>
       <c r="M10">
-        <v>1.308600723484545</v>
+        <v>0.09172447401912009</v>
       </c>
       <c r="N10">
-        <v>0.2143096543452003</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3059795422028131</v>
+        <v>1.339269114997563</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2211135899242578</v>
       </c>
       <c r="Q10">
-        <v>1.280519103817426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3047915731199353</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.145507479125229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.516787801677538</v>
+        <v>1.492043475043999</v>
       </c>
       <c r="C11">
-        <v>0.2179096364813162</v>
+        <v>0.2195635067308643</v>
       </c>
       <c r="D11">
-        <v>0.1391661732307057</v>
+        <v>0.1493658501402706</v>
       </c>
       <c r="E11">
-        <v>0.06596453645737022</v>
+        <v>0.0602600732990819</v>
       </c>
       <c r="F11">
-        <v>0.477671772390778</v>
+        <v>0.4233039169058515</v>
       </c>
       <c r="G11">
-        <v>0.339539657858694</v>
+        <v>0.3340685832759576</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001469006712720322</v>
+        <v>0.001733066115471971</v>
       </c>
       <c r="J11">
-        <v>0.2933534950190761</v>
+        <v>0.248453523587898</v>
       </c>
       <c r="K11">
-        <v>0.326960434946745</v>
+        <v>0.2809855718927778</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1276302950236037</v>
       </c>
       <c r="M11">
-        <v>1.399000812700649</v>
+        <v>0.09092947509430971</v>
       </c>
       <c r="N11">
-        <v>0.2274539799885957</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3275530825180368</v>
+        <v>1.430362357433239</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2343999062437518</v>
       </c>
       <c r="Q11">
-        <v>1.282484928036382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3262467769915389</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.116796128367525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.555044948549295</v>
+        <v>1.529656386208529</v>
       </c>
       <c r="C12">
-        <v>0.2196292002648477</v>
+        <v>0.2216717022102301</v>
       </c>
       <c r="D12">
-        <v>0.1421396527584875</v>
+        <v>0.153595064548071</v>
       </c>
       <c r="E12">
-        <v>0.06626990660009291</v>
+        <v>0.060548210602974</v>
       </c>
       <c r="F12">
-        <v>0.4827650948719864</v>
+        <v>0.4232913056621541</v>
       </c>
       <c r="G12">
-        <v>0.3417139069954658</v>
+        <v>0.3493660526070244</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001437763254064528</v>
+        <v>0.001732991673314643</v>
       </c>
       <c r="J12">
-        <v>0.2930851034586865</v>
+        <v>0.2356221289446019</v>
       </c>
       <c r="K12">
-        <v>0.325977589188934</v>
+        <v>0.2775135384624967</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1257365969863926</v>
       </c>
       <c r="M12">
-        <v>1.432290265157206</v>
+        <v>0.09081143182580576</v>
       </c>
       <c r="N12">
-        <v>0.2322941224874597</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.3357876471625545</v>
+        <v>1.46367418736466</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2392580226042185</v>
       </c>
       <c r="Q12">
-        <v>1.286609936918268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3344375597562532</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.106553746588219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.546991971332716</v>
+        <v>1.521731365822234</v>
       </c>
       <c r="C13">
-        <v>0.2191492464772082</v>
+        <v>0.2210923858912253</v>
       </c>
       <c r="D13">
-        <v>0.1414584395243423</v>
+        <v>0.1526320961501142</v>
       </c>
       <c r="E13">
-        <v>0.06622828864589181</v>
+        <v>0.06050763948697835</v>
       </c>
       <c r="F13">
-        <v>0.4818680789325427</v>
+        <v>0.4235150036604125</v>
       </c>
       <c r="G13">
-        <v>0.3414329992442475</v>
+        <v>0.3460970011103655</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001396876518049872</v>
+        <v>0.001676771062869342</v>
       </c>
       <c r="J13">
-        <v>0.293239276585247</v>
+        <v>0.2384458033391468</v>
       </c>
       <c r="K13">
-        <v>0.326356643362903</v>
+        <v>0.2784184823674956</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1261938014573367</v>
       </c>
       <c r="M13">
-        <v>1.424921106927343</v>
+        <v>0.09090289823463493</v>
       </c>
       <c r="N13">
-        <v>0.231213036484391</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3340242600067072</v>
+        <v>1.456310697387238</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.238174817125568</v>
       </c>
       <c r="Q13">
-        <v>1.286320602416751</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.332683300784268</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.109395904262115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.520014353636498</v>
+        <v>1.495212321599297</v>
       </c>
       <c r="C14">
-        <v>0.2180045646212747</v>
+        <v>0.2196838304687816</v>
       </c>
       <c r="D14">
-        <v>0.1393934699455457</v>
+        <v>0.1496914939584855</v>
       </c>
       <c r="E14">
-        <v>0.06599990975368009</v>
+        <v>0.06029287666006411</v>
       </c>
       <c r="F14">
-        <v>0.4781756305516041</v>
+        <v>0.423397964691766</v>
       </c>
       <c r="G14">
-        <v>0.3397980482930052</v>
+        <v>0.3353336503580095</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001445819989562835</v>
+        <v>0.001708748996515297</v>
       </c>
       <c r="J14">
-        <v>0.2933723208824688</v>
+        <v>0.2474295629861913</v>
       </c>
       <c r="K14">
-        <v>0.3269506509074702</v>
+        <v>0.280767597819537</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1274960182038747</v>
       </c>
       <c r="M14">
-        <v>1.401654753321168</v>
+        <v>0.09094785829012864</v>
       </c>
       <c r="N14">
-        <v>0.2278357049385562</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3282348016546663</v>
+        <v>1.433022847125301</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2347838884345066</v>
       </c>
       <c r="Q14">
-        <v>1.283078552888043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3269247661883554</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.116227831181448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.50312326296401</v>
+        <v>1.478628810712962</v>
       </c>
       <c r="C15">
-        <v>0.2175197494940377</v>
+        <v>0.2190630307711388</v>
       </c>
       <c r="D15">
-        <v>0.1382091066073343</v>
+        <v>0.148001421752781</v>
       </c>
       <c r="E15">
-        <v>0.06581285914753821</v>
+        <v>0.06012020396400963</v>
       </c>
       <c r="F15">
-        <v>0.4755248091693574</v>
+        <v>0.4228556073452125</v>
       </c>
       <c r="G15">
-        <v>0.3384315858946252</v>
+        <v>0.3288498987707342</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001576124272315127</v>
+        <v>0.001845857521078464</v>
       </c>
       <c r="J15">
-        <v>0.2932662661053342</v>
+        <v>0.2527485284841546</v>
       </c>
       <c r="K15">
-        <v>0.3269875056606644</v>
+        <v>0.2818780154901788</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1281895693469455</v>
       </c>
       <c r="M15">
-        <v>1.387797704857263</v>
+        <v>0.0908412076124705</v>
       </c>
       <c r="N15">
-        <v>0.2258450425510148</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3246693859851746</v>
+        <v>1.419121908575164</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2327799396249475</v>
       </c>
       <c r="Q15">
-        <v>1.279925974794509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3233789531507796</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.119054298021823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.408659313677219</v>
+        <v>1.386123874125218</v>
       </c>
       <c r="C16">
-        <v>0.2133952899208396</v>
+        <v>0.2136068585049031</v>
       </c>
       <c r="D16">
-        <v>0.1309206675637711</v>
+        <v>0.13820365239701</v>
       </c>
       <c r="E16">
-        <v>0.06506839471859571</v>
+        <v>0.05947011032952254</v>
       </c>
       <c r="F16">
-        <v>0.4631279864151168</v>
+        <v>0.4206019486958041</v>
       </c>
       <c r="G16">
-        <v>0.3331994379265595</v>
+        <v>0.3008893431844939</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001840999785847508</v>
+        <v>0.002011454786837064</v>
       </c>
       <c r="J16">
-        <v>0.2940172955643021</v>
+        <v>0.2815401610349753</v>
       </c>
       <c r="K16">
-        <v>0.329472670579392</v>
+        <v>0.2893489154527273</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1326112223887446</v>
       </c>
       <c r="M16">
-        <v>1.305967494938045</v>
+        <v>0.09077230674943237</v>
       </c>
       <c r="N16">
-        <v>0.214064016947944</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3043962909508551</v>
+        <v>1.336564381282528</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2208529329063822</v>
       </c>
       <c r="Q16">
-        <v>1.270211955261061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3032194446394456</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.137826423807255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.350709036008027</v>
+        <v>1.329588345943961</v>
       </c>
       <c r="C17">
-        <v>0.2108791048984884</v>
+        <v>0.2100276111794841</v>
       </c>
       <c r="D17">
-        <v>0.1264540634778513</v>
+        <v>0.1325405292923847</v>
       </c>
       <c r="E17">
-        <v>0.06462952235140307</v>
+        <v>0.0591170126872953</v>
       </c>
       <c r="F17">
-        <v>0.455724490637941</v>
+        <v>0.4179299543786215</v>
       </c>
       <c r="G17">
-        <v>0.3301651057894617</v>
+        <v>0.2891022828695284</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.00209322338600515</v>
+        <v>0.002186195920171663</v>
       </c>
       <c r="J17">
-        <v>0.294583850244635</v>
+        <v>0.2954709087461396</v>
       </c>
       <c r="K17">
-        <v>0.3311229732024117</v>
+        <v>0.2933342546419304</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1351731169589527</v>
       </c>
       <c r="M17">
-        <v>1.255808165231002</v>
+        <v>0.09056465277017622</v>
       </c>
       <c r="N17">
-        <v>0.2069099278968309</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2919808126199968</v>
+        <v>1.285550202323861</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2135496202560603</v>
       </c>
       <c r="Q17">
-        <v>1.264844204680173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2908768727708093</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.145652038133946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.318303466010263</v>
+        <v>1.298047200665422</v>
       </c>
       <c r="C18">
-        <v>0.2088931942225187</v>
+        <v>0.2072287545187237</v>
       </c>
       <c r="D18">
-        <v>0.1236839299023558</v>
+        <v>0.1291960653713744</v>
       </c>
       <c r="E18">
-        <v>0.06450713212465864</v>
+        <v>0.05904396162609693</v>
       </c>
       <c r="F18">
-        <v>0.4525689404848521</v>
+        <v>0.4169045705962802</v>
       </c>
       <c r="G18">
-        <v>0.3294477160416704</v>
+        <v>0.2849549848112787</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002005802969561543</v>
+        <v>0.001998096269803185</v>
       </c>
       <c r="J18">
-        <v>0.2954481154438255</v>
+        <v>0.302125765066144</v>
       </c>
       <c r="K18">
-        <v>0.3329776482212878</v>
+        <v>0.2961654016445578</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.13686246657198</v>
       </c>
       <c r="M18">
-        <v>1.225982469123153</v>
+        <v>0.09068609269250949</v>
       </c>
       <c r="N18">
-        <v>0.2026370104259314</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.284899518668233</v>
+        <v>1.25508658432571</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2091706128925637</v>
       </c>
       <c r="Q18">
-        <v>1.26506277364075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2838378065526612</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.151681401966158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.306615305434093</v>
+        <v>1.286680950280783</v>
       </c>
       <c r="C19">
-        <v>0.208640337891822</v>
+        <v>0.206772703494309</v>
       </c>
       <c r="D19">
-        <v>0.1229024407049479</v>
+        <v>0.128242862742681</v>
       </c>
       <c r="E19">
-        <v>0.06437142668613482</v>
+        <v>0.05893348946229438</v>
       </c>
       <c r="F19">
-        <v>0.4507173567285392</v>
+        <v>0.4157353898966818</v>
       </c>
       <c r="G19">
-        <v>0.3284705876785949</v>
+        <v>0.2831412659288475</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002182125810541891</v>
+        <v>0.002178082441311346</v>
       </c>
       <c r="J19">
-        <v>0.2953612457421926</v>
+        <v>0.3036848099439808</v>
       </c>
       <c r="K19">
-        <v>0.3329494960830601</v>
+        <v>0.2965067941022781</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1372098791532572</v>
       </c>
       <c r="M19">
-        <v>1.216648165414512</v>
+        <v>0.09049423703439352</v>
       </c>
       <c r="N19">
-        <v>0.2013365361730592</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.282462572299977</v>
+        <v>1.245513643850728</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2078306455144627</v>
       </c>
       <c r="Q19">
-        <v>1.262785270002482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2814160531103127</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.151309557274416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.356950985204804</v>
+        <v>1.335670263214951</v>
       </c>
       <c r="C20">
-        <v>0.2111036224710787</v>
+        <v>0.2103656644027012</v>
       </c>
       <c r="D20">
-        <v>0.1269134633047315</v>
+        <v>0.1331145539570855</v>
       </c>
       <c r="E20">
-        <v>0.06468526517658724</v>
+        <v>0.0591619355335844</v>
       </c>
       <c r="F20">
-        <v>0.4565859740022518</v>
+        <v>0.418337594264969</v>
       </c>
       <c r="G20">
-        <v>0.3305572805034345</v>
+        <v>0.2902430898760855</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002042097620131855</v>
+        <v>0.00213981130871943</v>
       </c>
       <c r="J20">
-        <v>0.2945587832338177</v>
+        <v>0.294203351249223</v>
       </c>
       <c r="K20">
-        <v>0.3310099704510172</v>
+        <v>0.2929910273787151</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1349278857691338</v>
       </c>
       <c r="M20">
-        <v>1.26106867692846</v>
+        <v>0.09061531173493975</v>
       </c>
       <c r="N20">
-        <v>0.2076543415900858</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2933058331055634</v>
+        <v>1.290916644643545</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.214312093675872</v>
       </c>
       <c r="Q20">
-        <v>1.265636130647323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.292193939038377</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.145177984466329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.526894491210271</v>
+        <v>1.50238152300463</v>
       </c>
       <c r="C21">
-        <v>0.2189532843559405</v>
+        <v>0.2204084370882953</v>
       </c>
       <c r="D21">
-        <v>0.1402275456867983</v>
+        <v>0.1513230995141299</v>
       </c>
       <c r="E21">
-        <v>0.06592903281875095</v>
+        <v>0.06027590761728696</v>
       </c>
       <c r="F21">
-        <v>0.4781084966544498</v>
+        <v>0.4200481399008069</v>
       </c>
       <c r="G21">
-        <v>0.339201377193838</v>
+        <v>0.3453913983493067</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001697245448685436</v>
+        <v>0.002019431053585485</v>
       </c>
       <c r="J21">
-        <v>0.2927768002299729</v>
+        <v>0.2374420737930194</v>
       </c>
       <c r="K21">
-        <v>0.3258198151515828</v>
+        <v>0.2781448164569227</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.126471665994643</v>
       </c>
       <c r="M21">
-        <v>1.409597776875614</v>
+        <v>0.09011418055055742</v>
       </c>
       <c r="N21">
-        <v>0.2290320691624572</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3298751974198666</v>
+        <v>1.440312734949032</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2358841075074167</v>
       </c>
       <c r="Q21">
-        <v>1.280582535448985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3285752725268978</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.104440742111052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.639312633814711</v>
+        <v>1.612759925076858</v>
       </c>
       <c r="C22">
-        <v>0.2233553749080386</v>
+        <v>0.2259913937811149</v>
       </c>
       <c r="D22">
-        <v>0.1486581117736137</v>
+        <v>0.1632770566506991</v>
       </c>
       <c r="E22">
-        <v>0.06697664595063912</v>
+        <v>0.0612525185085655</v>
       </c>
       <c r="F22">
-        <v>0.4943214644269318</v>
+        <v>0.4219957278986328</v>
       </c>
       <c r="G22">
-        <v>0.3468138132458307</v>
+        <v>0.3905789920309246</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001432278356771732</v>
+        <v>0.001767599497719097</v>
       </c>
       <c r="J22">
-        <v>0.2926736477489342</v>
+        <v>0.2086618163561447</v>
       </c>
       <c r="K22">
-        <v>0.3240638165766363</v>
+        <v>0.2693585198348281</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1215047248729846</v>
       </c>
       <c r="M22">
-        <v>1.505423318596229</v>
+        <v>0.09036454266789207</v>
       </c>
       <c r="N22">
-        <v>0.2429945089641734</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3539292547492749</v>
+        <v>1.536416646040323</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2499287191091781</v>
       </c>
       <c r="Q22">
-        <v>1.296728857908278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3524868828496324</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.080515749595932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.580568612965493</v>
+        <v>1.55478183368453</v>
       </c>
       <c r="C23">
-        <v>0.2202634174660005</v>
+        <v>0.2224240951427134</v>
       </c>
       <c r="D23">
-        <v>0.1438820846692437</v>
+        <v>0.1562013261245028</v>
       </c>
       <c r="E23">
-        <v>0.0665779409258267</v>
+        <v>0.06084270984952944</v>
       </c>
       <c r="F23">
-        <v>0.4869877067334514</v>
+        <v>0.4238860514681377</v>
       </c>
       <c r="G23">
-        <v>0.3439892317841995</v>
+        <v>0.3612249543015054</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001240834443059669</v>
+        <v>0.001514037749791974</v>
       </c>
       <c r="J23">
-        <v>0.2933637218785137</v>
+        <v>0.2276252049954905</v>
       </c>
       <c r="K23">
-        <v>0.3261121574087475</v>
+        <v>0.2757944656009101</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1246973467447425</v>
       </c>
       <c r="M23">
-        <v>1.452923222750542</v>
+        <v>0.09096817915917654</v>
       </c>
       <c r="N23">
-        <v>0.235270645360913</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3411555718473522</v>
+        <v>1.484253174690366</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2422360590291248</v>
       </c>
       <c r="Q23">
-        <v>1.292066928013483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3397768928241973</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.101699668667763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.356095663781389</v>
+        <v>1.334839494857192</v>
       </c>
       <c r="C24">
-        <v>0.2098556324811653</v>
+        <v>0.2088271090779728</v>
       </c>
       <c r="D24">
-        <v>0.1262769753533775</v>
+        <v>0.1324162574281189</v>
       </c>
       <c r="E24">
-        <v>0.06492183636978055</v>
+        <v>0.0593839450970286</v>
       </c>
       <c r="F24">
-        <v>0.4583793057660799</v>
+        <v>0.420196200760472</v>
       </c>
       <c r="G24">
-        <v>0.332424488846577</v>
+        <v>0.2916325881954833</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001546689874063034</v>
+        <v>0.001542382281705557</v>
       </c>
       <c r="J24">
-        <v>0.2956288893601737</v>
+        <v>0.2957234218354898</v>
       </c>
       <c r="K24">
-        <v>0.3328836207647363</v>
+        <v>0.2947348143113402</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1356138843790546</v>
       </c>
       <c r="M24">
-        <v>1.256597833426042</v>
+        <v>0.09121696147167846</v>
       </c>
       <c r="N24">
-        <v>0.2069284474508493</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2928183107642468</v>
+        <v>1.286394197607251</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2135786299625693</v>
       </c>
       <c r="Q24">
-        <v>1.271829904219857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2917080833290697</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.151390407947432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.113944013827478</v>
+        <v>1.100280440763669</v>
       </c>
       <c r="C25">
-        <v>0.1987686607658148</v>
+        <v>0.1910684404830576</v>
       </c>
       <c r="D25">
-        <v>0.1073248375651019</v>
+        <v>0.1111687864477489</v>
       </c>
       <c r="E25">
-        <v>0.06339223230886404</v>
+        <v>0.05840642981389799</v>
       </c>
       <c r="F25">
-        <v>0.4303421824992952</v>
+        <v>0.3994958432645106</v>
       </c>
       <c r="G25">
-        <v>0.3224151852900192</v>
+        <v>0.2822199860876964</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002969007873574903</v>
+        <v>0.002458021467266924</v>
       </c>
       <c r="J25">
-        <v>0.2995737382446038</v>
+        <v>0.3053581085625652</v>
       </c>
       <c r="K25">
-        <v>0.3419976811875998</v>
+        <v>0.3073196454864693</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1451380823523429</v>
       </c>
       <c r="M25">
-        <v>1.045216273031343</v>
+        <v>0.08971542720814618</v>
       </c>
       <c r="N25">
-        <v>0.1773196935627652</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2409510336559251</v>
+        <v>1.068045521740089</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1828756093407264</v>
       </c>
       <c r="Q25">
-        <v>1.258343232185169</v>
+        <v>0.2401766297475483</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.156756926234692</v>
       </c>
     </row>
   </sheetData>
